--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/15/seed3/result_data_KNN.xlsx
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.569999999999999</v>
+        <v>-7.27</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.292</v>
+        <v>5.792</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -601,7 +601,7 @@
         <v>-18.76</v>
       </c>
       <c r="B10" t="n">
-        <v>6.958</v>
+        <v>6.851999999999999</v>
       </c>
       <c r="C10" t="n">
         <v>-10.58</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.294</v>
+        <v>6.548999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -655,7 +655,7 @@
         <v>4.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.196</v>
+        <v>-12.729</v>
       </c>
       <c r="D13" t="n">
         <v>-8.92</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>5.294</v>
+        <v>6.548999999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.395999999999999</v>
+        <v>-8.222</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
